--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -1,40 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7681B4-23DB-4CB0-80D8-689D6944B0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2080" yWindow="890" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>indexshiftverify</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>applicationtimestamp</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shiftperiod</t>
+  </si>
+  <si>
+    <t>shiftlevel</t>
+  </si>
+  <si>
+    <t>clockin</t>
+  </si>
+  <si>
+    <t>clockout</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +99,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,134 +424,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>indexShiftVerify</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>applicationTimestamp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>shiftPeriod</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>shiftLevel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>clockIn</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>clockOut</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>remarks</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-31 15:19:59</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>46022.08663667824</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>WANG CONGYING WANG</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>46029</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>L4</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -1,90 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7681B4-23DB-4CB0-80D8-689D6944B0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="890" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>indexshiftverify</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>applicationtimestamp</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shiftperiod</t>
-  </si>
-  <si>
-    <t>shiftlevel</t>
-  </si>
-  <si>
-    <t>clockin</t>
-  </si>
-  <si>
-    <t>clockout</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,62 +424,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="A2:J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>indexshiftverify</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>applicationtimestamp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>shiftperiod</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>shiftlevel</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>clockin</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>clockout</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-01-01 23:23:04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G3" s="2"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-01-01 23:45:39</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,11 +560,7 @@
           <t>2026-01-01 23:45:39</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>2301451</t>
@@ -601,6 +597,100 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-01-02 01:34:11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-02 01:46:03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,18 +510,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-01 23:23:04</t>
+          <t>2026-01-02 13:31:07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2301451</t>
+          <t>2402008</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WANG CONGYING WANG</t>
+          <t>CHONG QINYI SHERMAINE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -530,21 +530,21 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Afternoon</t>
+          <t>afternoon</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>l4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -557,18 +557,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-01 23:45:39</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>2026-01-02 13:34:17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2301451</t>
+          <t>2402008</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WANG CONGYING WANG</t>
+          <t>CHONG QINYI SHERMAINE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,7 +581,7 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46028</v>
+        <v>46035</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -597,100 +601,6 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-02 01:34:11</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>WANG CONGYING WANG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>46036</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>night</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-02 01:46:03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>WANG CONGYING WANG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>46036</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>l4</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,11 +560,7 @@
           <t>2026-01-02 13:34:17</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>2402008</t>
@@ -601,6 +597,2811 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2403472</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CHUA TENG HWEE KEITH</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:38</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2400788</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ALEXI KIZHAKKEPURATHU GEORGE GEORGE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:49</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2501931</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MANALANG ERIANNE KAYE MASBANG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:57:50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2401574</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>YAP MIN JN  GALVIN YAP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:58:16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:58:39</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2401356</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ALICIA WONG YUAN QI WONG</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:01:31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2401910</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:01:46</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2401356</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ALICIA WONG YUAN QI WONG</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2401732</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ZENON KOH JIA EN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2402492</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>JESSICA CHOY ING CHOY</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:43</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2003284</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LENG HONGJIE, EVANDER LENG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2501612</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SIM JIA JUN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:03:34</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2400573</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NATHAN KONG YAN WEI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:03:52</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2200116</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CHONG KAI LIN CHONG</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:09</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2200116</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CHONG KAI LIN CHONG</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2500689</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MUHAMMAD IKHWAN BIN MOHAMAD TAHIR</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:37</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2400971</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NG YUEN TAO NG</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:53</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:15</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2402492</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>JESSICA CHOY ING CHOY</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:32</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2400741</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MUHAMMAD AKMAL BIN JEFREN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:44</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2401910</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:57</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2401356</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALICIA WONG YUAN QI WONG</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:06:10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2501612</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SIM JIA JUN</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:06:27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:06:56</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2400959</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HO CHIN YEE MELVIN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:07:09</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:07:21</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>46042</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:07:58</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2303202</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MUHAMMAD SHAQEEL BIN MOHAMMAD ISMAEL</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:08:13</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2400867</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BECKHAM BENNY ROSS ROSS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:08:26</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2401910</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:08:41</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2401574</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>YAP MIN JN  GALVIN YAP</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:14</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2500981</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>JUSTIN MENON</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:32</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2502375</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FEDORA LIM LI XUAN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:51</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2200116</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>CHONG KAI LIN CHONG</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:09</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2403472</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CHUA TENG HWEE KEITH</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:21</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2502375</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>FEDORA LIM LI XUAN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:54</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:11:10</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:11:34</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2502337</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MUHAMMAD MANSUR ALI BIN E N ABDUL JALEL</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:11:44</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:12:02</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:12:27</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2500981</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>JUSTIN MENON</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:12:40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2200116</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CHONG KAI LIN CHONG</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:02</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2401910</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:25</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:40</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2501612</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SIM JIA JUN</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:24:15</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2503832</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>WONG HUI SHAN</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:24:32</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2302801</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>LUKAS TAN LI ZHI TAN</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:25:18</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2502880</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ARO AARON LUCH JIMENEZ</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>46042</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:25:55</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3265E5-2F2B-4E4F-A772-D648B71E38C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECAE81C-D293-4E42-A38E-6D93681779C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$62</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="138">
   <si>
     <t>indexshiftverify</t>
   </si>
@@ -61,6 +64,372 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>2026-01-02 13:31:07</t>
+  </si>
+  <si>
+    <t>2402008</t>
+  </si>
+  <si>
+    <t>CHONG QINYI SHERMAINE</t>
+  </si>
+  <si>
+    <t>2026-01</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
+  <si>
+    <t>2026-01-02 13:34:17</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:55:14</t>
+  </si>
+  <si>
+    <t>2403472</t>
+  </si>
+  <si>
+    <t>CHUA TENG HWEE KEITH</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:55:24</t>
+  </si>
+  <si>
+    <t>2302801</t>
+  </si>
+  <si>
+    <t>LUKAS TAN LI ZHI TAN</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:55:38</t>
+  </si>
+  <si>
+    <t>2400788</t>
+  </si>
+  <si>
+    <t>ALEXI KIZHAKKEPURATHU GEORGE GEORGE</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:55:49</t>
+  </si>
+  <si>
+    <t>2501931</t>
+  </si>
+  <si>
+    <t>MANALANG ERIANNE KAYE MASBANG</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:57:50</t>
+  </si>
+  <si>
+    <t>2401574</t>
+  </si>
+  <si>
+    <t>YAP MIN JN  GALVIN YAP</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:58:16</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:58:39</t>
+  </si>
+  <si>
+    <t>2401356</t>
+  </si>
+  <si>
+    <t>ALICIA WONG YUAN QI WONG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:01:31</t>
+  </si>
+  <si>
+    <t>2401910</t>
+  </si>
+  <si>
+    <t>PNG SWEE HIANG PNG</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:01:46</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:02:11</t>
+  </si>
+  <si>
+    <t>2401732</t>
+  </si>
+  <si>
+    <t>ZENON KOH JIA EN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:02:29</t>
+  </si>
+  <si>
+    <t>2402492</t>
+  </si>
+  <si>
+    <t>JESSICA CHOY ING CHOY</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:02:43</t>
+  </si>
+  <si>
+    <t>2003284</t>
+  </si>
+  <si>
+    <t>LENG HONGJIE, EVANDER LENG</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:02:56</t>
+  </si>
+  <si>
+    <t>2501612</t>
+  </si>
+  <si>
+    <t>SIM JIA JUN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:03:34</t>
+  </si>
+  <si>
+    <t>2400573</t>
+  </si>
+  <si>
+    <t>NATHAN KONG YAN WEI</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:03:52</t>
+  </si>
+  <si>
+    <t>2200116</t>
+  </si>
+  <si>
+    <t>CHONG KAI LIN CHONG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:09</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:24</t>
+  </si>
+  <si>
+    <t>2500689</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IKHWAN BIN MOHAMAD TAHIR</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:37</t>
+  </si>
+  <si>
+    <t>2400971</t>
+  </si>
+  <si>
+    <t>NG YUEN TAO NG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:53</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:05</t>
+  </si>
+  <si>
+    <t>2301451</t>
+  </si>
+  <si>
+    <t>WANG CONGYING WANG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:15</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:32</t>
+  </si>
+  <si>
+    <t>2400741</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AKMAL BIN JEFREN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:44</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:57</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:06:10</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:06:27</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:06:56</t>
+  </si>
+  <si>
+    <t>2400959</t>
+  </si>
+  <si>
+    <t>HO CHIN YEE MELVIN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:07:09</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:07:21</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:07:58</t>
+  </si>
+  <si>
+    <t>2303202</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SHAQEEL BIN MOHAMMAD ISMAEL</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:08:13</t>
+  </si>
+  <si>
+    <t>2400867</t>
+  </si>
+  <si>
+    <t>BECKHAM BENNY ROSS ROSS</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:08:26</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:08:41</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:14</t>
+  </si>
+  <si>
+    <t>2500981</t>
+  </si>
+  <si>
+    <t>JUSTIN MENON</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:32</t>
+  </si>
+  <si>
+    <t>2502375</t>
+  </si>
+  <si>
+    <t>FEDORA LIM LI XUAN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:51</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:09</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:21</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:42</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:54</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:11:10</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:11:34</t>
+  </si>
+  <si>
+    <t>2502337</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MANSUR ALI BIN E N ABDUL JALEL</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:11:44</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:12:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:12:27</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:12:40</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:12</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:25</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:40</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:24:15</t>
+  </si>
+  <si>
+    <t>2503832</t>
+  </si>
+  <si>
+    <t>WONG HUI SHAN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:24:32</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:25:18</t>
+  </si>
+  <si>
+    <t>2502880</t>
+  </si>
+  <si>
+    <t>ARO AARON LUCH JIMENEZ</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:25:55</t>
+  </si>
+  <si>
+    <t>2026-01-05 06:26:41</t>
+  </si>
+  <si>
+    <t>2026-01-05 06:27:29</t>
+  </si>
+  <si>
+    <t>2026-01-07 10:12:18</t>
+  </si>
+  <si>
+    <t>2026-01-07 10:13:02</t>
+  </si>
+  <si>
     <t>shiftstart</t>
   </si>
   <si>
@@ -68,426 +437,16 @@
   </si>
   <si>
     <t>shifthours</t>
-  </si>
-  <si>
-    <t>2026-01-02 13:31:07</t>
-  </si>
-  <si>
-    <t>2402008</t>
-  </si>
-  <si>
-    <t>CHONG QINYI SHERMAINE</t>
-  </si>
-  <si>
-    <t>2026-01</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>afternoon</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
-    <t>2026-01-02 13:34:17</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:55:14</t>
-  </si>
-  <si>
-    <t>2403472</t>
-  </si>
-  <si>
-    <t>CHUA TENG HWEE KEITH</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:55:24</t>
-  </si>
-  <si>
-    <t>2302801</t>
-  </si>
-  <si>
-    <t>LUKAS TAN LI ZHI TAN</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:55:38</t>
-  </si>
-  <si>
-    <t>2400788</t>
-  </si>
-  <si>
-    <t>ALEXI KIZHAKKEPURATHU GEORGE GEORGE</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:55:49</t>
-  </si>
-  <si>
-    <t>2501931</t>
-  </si>
-  <si>
-    <t>MANALANG ERIANNE KAYE MASBANG</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:57:50</t>
-  </si>
-  <si>
-    <t>2401574</t>
-  </si>
-  <si>
-    <t>YAP MIN JN  GALVIN YAP</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:58:16</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>2026-01-02 23:58:39</t>
-  </si>
-  <si>
-    <t>2401356</t>
-  </si>
-  <si>
-    <t>ALICIA WONG YUAN QI WONG</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:01:31</t>
-  </si>
-  <si>
-    <t>2401910</t>
-  </si>
-  <si>
-    <t>PNG SWEE HIANG PNG</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:01:46</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:11</t>
-  </si>
-  <si>
-    <t>2401732</t>
-  </si>
-  <si>
-    <t>ZENON KOH JIA EN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:29</t>
-  </si>
-  <si>
-    <t>2402492</t>
-  </si>
-  <si>
-    <t>JESSICA CHOY ING CHOY</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:43</t>
-  </si>
-  <si>
-    <t>2003284</t>
-  </si>
-  <si>
-    <t>LENG HONGJIE, EVANDER LENG</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:56</t>
-  </si>
-  <si>
-    <t>2501612</t>
-  </si>
-  <si>
-    <t>SIM JIA JUN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:03:34</t>
-  </si>
-  <si>
-    <t>2400573</t>
-  </si>
-  <si>
-    <t>NATHAN KONG YAN WEI</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:03:52</t>
-  </si>
-  <si>
-    <t>2200116</t>
-  </si>
-  <si>
-    <t>CHONG KAI LIN CHONG</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:09</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:24</t>
-  </si>
-  <si>
-    <t>2500689</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IKHWAN BIN MOHAMAD TAHIR</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:37</t>
-  </si>
-  <si>
-    <t>2400971</t>
-  </si>
-  <si>
-    <t>NG YUEN TAO NG</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:53</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:05</t>
-  </si>
-  <si>
-    <t>2301451</t>
-  </si>
-  <si>
-    <t>WANG CONGYING WANG</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:15</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:32</t>
-  </si>
-  <si>
-    <t>2400741</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AKMAL BIN JEFREN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:44</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:57</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:06:10</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:06:27</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:06:56</t>
-  </si>
-  <si>
-    <t>2400959</t>
-  </si>
-  <si>
-    <t>HO CHIN YEE MELVIN</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:07:09</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:07:21</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:07:58</t>
-  </si>
-  <si>
-    <t>2303202</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SHAQEEL BIN MOHAMMAD ISMAEL</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:08:13</t>
-  </si>
-  <si>
-    <t>2400867</t>
-  </si>
-  <si>
-    <t>BECKHAM BENNY ROSS ROSS</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:08:26</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:08:41</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:14</t>
-  </si>
-  <si>
-    <t>2500981</t>
-  </si>
-  <si>
-    <t>JUSTIN MENON</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:32</t>
-  </si>
-  <si>
-    <t>2502375</t>
-  </si>
-  <si>
-    <t>FEDORA LIM LI XUAN</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:51</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:09</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:21</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:42</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:54</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:11:10</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:11:34</t>
-  </si>
-  <si>
-    <t>2502337</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MANSUR ALI BIN E N ABDUL JALEL</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:11:44</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:12:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:12:27</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:12:40</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:12</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:25</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:40</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:24:15</t>
-  </si>
-  <si>
-    <t>2503832</t>
-  </si>
-  <si>
-    <t>WONG HUI SHAN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:24:32</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:25:18</t>
-  </si>
-  <si>
-    <t>2502880</t>
-  </si>
-  <si>
-    <t>ARO AARON LUCH JIMENEZ</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:25:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -533,15 +492,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,13 +822,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47:M47"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.7265625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -892,115 +878,166 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="N1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
+        <v>46027</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>46027.583333333336</v>
+      </c>
+      <c r="L2" s="2">
+        <v>46027.75</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>46027</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K3" s="2">
+        <v>46027.583333333336</v>
+      </c>
+      <c r="L3" s="2">
+        <v>46027.75</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>46028</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <v>46028.583333333336</v>
+      </c>
+      <c r="L4" s="2">
+        <v>46028.75</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1009,371 +1046,416 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>46028</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
+        <v>46028.583333333336</v>
+      </c>
+      <c r="L5" s="2">
+        <v>46028.75</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>46029</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>46029.583333333336</v>
+      </c>
+      <c r="L6" s="2">
+        <v>46029.75</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>46029</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K7" s="2">
+        <v>46029.583333333336</v>
+      </c>
+      <c r="L7" s="2">
+        <v>46029.75</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>46029</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>46029</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>46030</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <v>46030</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>46030</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>46030</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46031</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="2">
+        <v>46031</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>46031</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1381,31 +1463,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46034</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1413,1314 +1495,1442 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>46034</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="2">
+        <v>46035</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="G20" s="2">
+        <v>46035</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="G21" s="2">
+        <v>46035</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
+        <v>46036</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="2">
+        <v>46036</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46036</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46036</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46036</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <v>46037</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46037</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="G29" s="2">
+        <v>46037</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>102</v>
+        <v>16</v>
+      </c>
+      <c r="G30" s="2">
+        <v>46037</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>102</v>
+        <v>16</v>
+      </c>
+      <c r="G31" s="2">
+        <v>46038</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46038</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="G33" s="2">
+        <v>46041</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="G34" s="2">
+        <v>46041</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="G35" s="2">
+        <v>46042</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="G36" s="2">
+        <v>46042</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="G37" s="2">
+        <v>46043</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="2">
+        <v>46043</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>123</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="2">
+        <v>46043</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2">
+        <v>46043</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" t="s">
-        <v>22</v>
-      </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="G41" s="2">
+        <v>46044</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
         <v>27</v>
       </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="2">
+        <v>46044</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="G43" s="2">
+        <v>46044</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="G44" s="2">
+        <v>46044</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="G45" s="2">
+        <v>46045</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="G46" s="2">
+        <v>46045</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="G47" s="2">
+        <v>46048</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
         <v>27</v>
       </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="G48" s="2">
+        <v>46048</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>139</v>
+        <v>16</v>
+      </c>
+      <c r="G49" s="2">
+        <v>46049</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="D50" t="s">
-        <v>75</v>
-      </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>139</v>
+        <v>16</v>
+      </c>
+      <c r="G50" s="2">
+        <v>46049</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="D51" t="s">
-        <v>51</v>
-      </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>139</v>
+        <v>16</v>
+      </c>
+      <c r="G51" s="2">
+        <v>46050</v>
       </c>
       <c r="H51" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>139</v>
+        <v>16</v>
+      </c>
+      <c r="G52" s="2">
+        <v>46050</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
         <v>27</v>
       </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="G53" s="2">
+        <v>46050</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="G54" s="2">
+        <v>46050</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="G55" s="2">
+        <v>46050</v>
       </c>
       <c r="H55" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="G56" s="2">
+        <v>46051</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="G57" s="2">
+        <v>46051</v>
       </c>
       <c r="H57" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="2">
+        <v>46051</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="2">
+        <v>46051</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2">
+        <v>46052</v>
+      </c>
+      <c r="H60" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J58" t="s">
-        <v>23</v>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="2">
+        <v>46052</v>
+      </c>
+      <c r="H61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="2">
+        <v>46052</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M62">
+    <sortCondition ref="G2:G62"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/shift_record.xlsx
+++ b/data/shift_record.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\SIT POD Student Talent 2026\POD_StudentTalent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A33CDAC-A544-4325-A9CA-1E4ADF2A58EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D6C04-5B61-45FD-B214-5D833D18616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$57</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="164">
   <si>
     <t>indexshiftverify</t>
   </si>
@@ -97,6 +94,15 @@
     <t>l4</t>
   </si>
   <si>
+    <t>assisting students, house keeping</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
     <t>2026-01-02 23:55:24</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
     <t>night</t>
   </si>
   <si>
-    <t>18:00</t>
-  </si>
-  <si>
     <t>22:00</t>
   </si>
   <si>
@@ -175,6 +178,30 @@
     <t>ALICIA WONG YUAN QI WONG</t>
   </si>
   <si>
+    <t>2026-01-03 00:02:11</t>
+  </si>
+  <si>
+    <t>2401732</t>
+  </si>
+  <si>
+    <t>ZENON KOH JIA EN</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:02:29</t>
+  </si>
+  <si>
+    <t>2402492</t>
+  </si>
+  <si>
+    <t>JESSICA CHOY ING CHOY</t>
+  </si>
+  <si>
     <t>2026-01-03 00:01:31</t>
   </si>
   <si>
@@ -184,30 +211,6 @@
     <t>PNG SWEE HIANG PNG</t>
   </si>
   <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:11</t>
-  </si>
-  <si>
-    <t>2401732</t>
-  </si>
-  <si>
-    <t>ZENON KOH JIA EN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:29</t>
-  </si>
-  <si>
-    <t>2402492</t>
-  </si>
-  <si>
-    <t>JESSICA CHOY ING CHOY</t>
-  </si>
-  <si>
     <t>2026-01-14 07:53:38</t>
   </si>
   <si>
@@ -217,286 +220,298 @@
     <t>CALWIN ANG WEI XUAN ANG</t>
   </si>
   <si>
+    <t>2026-01-03 00:02:56</t>
+  </si>
+  <si>
+    <t>2501612</t>
+  </si>
+  <si>
+    <t>SIM JIA JUN</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>2026-01-07 10:13:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:03:34</t>
+  </si>
+  <si>
+    <t>2400573</t>
+  </si>
+  <si>
+    <t>NATHAN KONG YAN WEI</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:03:52</t>
+  </si>
+  <si>
+    <t>2200116</t>
+  </si>
+  <si>
+    <t>CHONG KAI LIN CHONG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:09</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:24:15</t>
+  </si>
+  <si>
+    <t>2503832</t>
+  </si>
+  <si>
+    <t>WONG HUI SHAN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:24</t>
+  </si>
+  <si>
+    <t>2500689</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IKHWAN BIN MOHAMAD TAHIR</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-05 06:27:29</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:04:53</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:05</t>
+  </si>
+  <si>
+    <t>2301451</t>
+  </si>
+  <si>
+    <t>WANG CONGYING WANG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:12</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:15</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:32</t>
+  </si>
+  <si>
+    <t>2400741</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AKMAL BIN JEFREN</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:44</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:05:57</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:06:10</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:06:27</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:06:56</t>
+  </si>
+  <si>
+    <t>2400959</t>
+  </si>
+  <si>
+    <t>HO CHIN YEE MELVIN</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:07:09</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:07:21</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:25:18</t>
+  </si>
+  <si>
+    <t>2502880</t>
+  </si>
+  <si>
+    <t>ARO AARON LUCH JIMENEZ</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:07:58</t>
+  </si>
+  <si>
+    <t>2303202</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SHAQEEL BIN MOHAMMAD ISMAEL</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:08:13</t>
+  </si>
+  <si>
+    <t>2400867</t>
+  </si>
+  <si>
+    <t>BECKHAM BENNY ROSS ROSS</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:11:44</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:24:32</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morning </t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:14</t>
+  </si>
+  <si>
+    <t>2500981</t>
+  </si>
+  <si>
+    <t>JUSTIN MENON</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:08:26</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:08:41</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:32</t>
+  </si>
+  <si>
+    <t>2502375</t>
+  </si>
+  <si>
+    <t>FEDORA LIM LI XUAN</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:09:51</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:09</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:21</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:42</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:10:54</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:11:34</t>
+  </si>
+  <si>
+    <t>2502337</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MANSUR ALI BIN E N ABDUL JALEL</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-05 06:26:41</t>
+  </si>
+  <si>
+    <t>2400971</t>
+  </si>
+  <si>
+    <t>NG YUEN TAO NG</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:12:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:25:55</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:12:27</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:12:40</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:02</t>
+  </si>
+  <si>
+    <t>2026-01-03 00:13:40</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-07 10:12:18</t>
+  </si>
+  <si>
+    <t>2026-01-02 23:55:15</t>
+  </si>
+  <si>
     <t>2003284</t>
   </si>
   <si>
     <t>LENG HONGJIE, EVANDER LENG</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:02:56</t>
-  </si>
-  <si>
-    <t>2501612</t>
-  </si>
-  <si>
-    <t>SIM JIA JUN</t>
-  </si>
-  <si>
-    <t>2026-01-07 10:13:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:03:34</t>
-  </si>
-  <si>
-    <t>2400573</t>
-  </si>
-  <si>
-    <t>NATHAN KONG YAN WEI</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:03:52</t>
-  </si>
-  <si>
-    <t>2200116</t>
-  </si>
-  <si>
-    <t>CHONG KAI LIN CHONG</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:09</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:24:15</t>
-  </si>
-  <si>
-    <t>2503832</t>
-  </si>
-  <si>
-    <t>WONG HUI SHAN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:24</t>
-  </si>
-  <si>
-    <t>2500689</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IKHWAN BIN MOHAMAD TAHIR</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2400971</t>
-  </si>
-  <si>
-    <t>NG YUEN TAO NG</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:04:53</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:05</t>
-  </si>
-  <si>
-    <t>2301451</t>
-  </si>
-  <si>
-    <t>WANG CONGYING WANG</t>
-  </si>
-  <si>
-    <t>2026-01-05 06:27:29</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:15</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:32</t>
-  </si>
-  <si>
-    <t>2400741</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AKMAL BIN JEFREN</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:44</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:05:57</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:06:10</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:06:27</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:06:56</t>
-  </si>
-  <si>
-    <t>2400959</t>
-  </si>
-  <si>
-    <t>HO CHIN YEE MELVIN</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:07:09</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:07:21</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:25:18</t>
-  </si>
-  <si>
-    <t>2502880</t>
-  </si>
-  <si>
-    <t>ARO AARON LUCH JIMENEZ</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:07:58</t>
-  </si>
-  <si>
-    <t>2303202</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SHAQEEL BIN MOHAMMAD ISMAEL</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:08:13</t>
-  </si>
-  <si>
-    <t>2400867</t>
-  </si>
-  <si>
-    <t>BECKHAM BENNY ROSS ROSS</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:11:44</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:24:32</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:08:26</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:08:41</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:14</t>
-  </si>
-  <si>
-    <t>2500981</t>
-  </si>
-  <si>
-    <t>JUSTIN MENON</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:32</t>
-  </si>
-  <si>
-    <t>2502375</t>
-  </si>
-  <si>
-    <t>FEDORA LIM LI XUAN</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:09:51</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:09</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:21</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:42</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:10:54</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:11:34</t>
-  </si>
-  <si>
-    <t>2502337</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MANSUR ALI BIN E N ABDUL JALEL</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:12:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:25:55</t>
-  </si>
-  <si>
-    <t>2026-01-05 06:26:41</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:12:27</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:12:40</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:02</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:12</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-03 00:13:40</t>
-  </si>
-  <si>
-    <t>2026-01-07 10:12:18</t>
   </si>
 </sst>
 </file>
@@ -863,18 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -963,11 +973,14 @@
       <c r="L2" s="2">
         <v>46027.75</v>
       </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P2">
         <v>4</v>
@@ -978,16 +991,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1010,11 +1023,14 @@
       <c r="L3" s="2">
         <v>46027.75</v>
       </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>4</v>
@@ -1025,25 +1041,25 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -1057,11 +1073,14 @@
       <c r="L4" s="2">
         <v>46028.75</v>
       </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -1072,25 +1091,25 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -1104,11 +1123,14 @@
       <c r="L5" s="2">
         <v>46028.75</v>
       </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -1119,25 +1141,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -1151,11 +1173,14 @@
       <c r="L6" s="2">
         <v>46029.75</v>
       </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -1166,25 +1191,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -1198,11 +1223,14 @@
       <c r="L7" s="2">
         <v>46029.75</v>
       </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -1213,28 +1241,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1243,13 +1271,16 @@
         <v>46029.75</v>
       </c>
       <c r="L8" s="2">
-        <v>46029.916666666664</v>
+        <v>46029.916666666657</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8">
         <v>4</v>
@@ -1260,28 +1291,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1290,13 +1321,16 @@
         <v>46029.75</v>
       </c>
       <c r="L9" s="2">
-        <v>46029.916666666664</v>
+        <v>46029.916666666657</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P9">
         <v>4</v>
@@ -1307,26 +1341,26 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
@@ -1334,16 +1368,19 @@
         <v>23</v>
       </c>
       <c r="K10" s="2">
-        <v>46030.583333333336</v>
+        <v>46030.583333333343</v>
       </c>
       <c r="L10" s="2">
         <v>46030.75</v>
       </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P10">
         <v>4</v>
@@ -1354,25 +1391,25 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1381,16 +1418,19 @@
         <v>23</v>
       </c>
       <c r="K11" s="2">
-        <v>46030.583333333336</v>
+        <v>46030.583333333343</v>
       </c>
       <c r="L11" s="2">
         <v>46030.75</v>
       </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P11">
         <v>4</v>
@@ -1401,28 +1441,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1431,13 +1471,16 @@
         <v>46030.75</v>
       </c>
       <c r="L12" s="2">
-        <v>46030.916666666664</v>
+        <v>46030.916666666657</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P12">
         <v>4</v>
@@ -1448,25 +1491,25 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1475,13 +1518,16 @@
         <v>46030.75</v>
       </c>
       <c r="L13" s="2">
-        <v>46030.916666666664</v>
+        <v>46030.916666666657</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13">
         <v>4</v>
@@ -1492,26 +1538,26 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
@@ -1519,16 +1565,19 @@
         <v>23</v>
       </c>
       <c r="K14" s="2">
-        <v>46031.583333333336</v>
+        <v>46031.583333333343</v>
       </c>
       <c r="L14" s="2">
         <v>46031.75</v>
       </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P14">
         <v>4</v>
@@ -1545,19 +1594,19 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -1571,11 +1620,14 @@
       <c r="L15" s="2">
         <v>46031.75</v>
       </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P15">
         <v>4</v>
@@ -1613,16 +1665,19 @@
         <v>23</v>
       </c>
       <c r="K16" s="2">
-        <v>46034.583333333336</v>
+        <v>46034.583333333343</v>
       </c>
       <c r="L16" s="2">
         <v>46034.75</v>
       </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P16">
         <v>4</v>
@@ -1660,16 +1715,19 @@
         <v>23</v>
       </c>
       <c r="K17" s="2">
-        <v>46034.583333333336</v>
+        <v>46034.583333333343</v>
       </c>
       <c r="L17" s="2">
         <v>46034.75</v>
       </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P17">
         <v>4</v>
@@ -1680,7 +1738,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1695,10 +1753,10 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -1707,16 +1765,19 @@
         <v>23</v>
       </c>
       <c r="K18" s="2">
-        <v>46035.583333333336</v>
+        <v>46035.583333333343</v>
       </c>
       <c r="L18" s="2">
         <v>46035.75</v>
       </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P18">
         <v>4</v>
@@ -1742,10 +1803,10 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
@@ -1754,16 +1815,19 @@
         <v>23</v>
       </c>
       <c r="K19" s="2">
-        <v>46035.583333333336</v>
+        <v>46035.583333333343</v>
       </c>
       <c r="L19" s="2">
         <v>46035.75</v>
       </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P19">
         <v>4</v>
@@ -1792,7 +1856,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -1803,11 +1867,17 @@
       <c r="K20" s="2">
         <v>46036.61241898148</v>
       </c>
+      <c r="L20" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P20">
         <v>4</v>
@@ -1818,16 +1888,16 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -1836,7 +1906,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -1847,11 +1917,17 @@
       <c r="K21" s="2">
         <v>46036.587604166663</v>
       </c>
+      <c r="L21" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P21">
         <v>4</v>
@@ -1862,16 +1938,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1880,10 +1956,10 @@
         <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -1891,11 +1967,17 @@
       <c r="K22" s="2">
         <v>46036.584456018521</v>
       </c>
+      <c r="L22" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P22">
         <v>4</v>
@@ -1906,16 +1988,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -1924,19 +2006,28 @@
         <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
+      <c r="K23" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L23" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
       <c r="N23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P23">
         <v>4</v>
@@ -1944,69 +2035,78 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2">
+        <v>46035.375</v>
+      </c>
+      <c r="L24" s="2">
+        <v>46035.5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
         <v>96</v>
       </c>
-      <c r="H24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" t="s">
-        <v>123</v>
-      </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -2014,11 +2114,20 @@
       <c r="J25" t="s">
         <v>23</v>
       </c>
+      <c r="K25" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L25" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P25">
         <v>4</v>
@@ -2026,40 +2135,49 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
+      <c r="K26" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L26" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
       <c r="N26" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P26">
         <v>4</v>
@@ -2067,40 +2185,49 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L27" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
         <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" t="s">
-        <v>46</v>
       </c>
       <c r="P27">
         <v>4</v>
@@ -2108,40 +2235,49 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
         <v>23</v>
       </c>
+      <c r="K28" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L28" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P28">
         <v>4</v>
@@ -2149,7 +2285,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>104</v>
@@ -2158,19 +2294,19 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -2178,11 +2314,20 @@
       <c r="J29" t="s">
         <v>23</v>
       </c>
+      <c r="K29" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L29" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
       <c r="N29" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P29">
         <v>4</v>
@@ -2190,28 +2335,28 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>108</v>
-      </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -2219,11 +2364,20 @@
       <c r="J30" t="s">
         <v>23</v>
       </c>
+      <c r="K30" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L30" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P30">
         <v>4</v>
@@ -2231,25 +2385,25 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
         <v>109</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
         <v>21</v>
@@ -2260,11 +2414,20 @@
       <c r="J31" t="s">
         <v>23</v>
       </c>
+      <c r="K31" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L31" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P31">
         <v>4</v>
@@ -2272,28 +2435,28 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
         <v>110</v>
       </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>111</v>
-      </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
@@ -2301,11 +2464,20 @@
       <c r="J32" t="s">
         <v>23</v>
       </c>
+      <c r="K32" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L32" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P32">
         <v>4</v>
@@ -2313,7 +2485,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -2322,19 +2494,19 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
         <v>113</v>
       </c>
-      <c r="E33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>111</v>
-      </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -2342,11 +2514,20 @@
       <c r="J33" t="s">
         <v>23</v>
       </c>
+      <c r="K33" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L33" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P33">
         <v>4</v>
@@ -2354,28 +2535,28 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
         <v>115</v>
       </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>116</v>
       </c>
-      <c r="E34" t="s">
-        <v>117</v>
-      </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
         <v>22</v>
@@ -2383,11 +2564,20 @@
       <c r="J34" t="s">
         <v>23</v>
       </c>
+      <c r="K34" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L34" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P34">
         <v>4</v>
@@ -2395,28 +2585,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
         <v>120</v>
       </c>
-      <c r="E35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>118</v>
-      </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -2424,11 +2614,20 @@
       <c r="J35" t="s">
         <v>23</v>
       </c>
+      <c r="K35" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L35" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P35">
         <v>4</v>
@@ -2436,40 +2635,49 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
+      <c r="K36" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L36" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O36" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P36">
         <v>4</v>
@@ -2477,7 +2685,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>124</v>
@@ -2486,31 +2694,40 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
+      <c r="K37" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L37" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
       <c r="N37" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -2518,40 +2735,49 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" t="s">
-        <v>54</v>
-      </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s">
         <v>23</v>
       </c>
+      <c r="K38" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L38" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -2559,19 +2785,19 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
@@ -2580,39 +2806,48 @@
         <v>126</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
+      <c r="K39" s="2">
+        <v>46035.375</v>
+      </c>
+      <c r="L39" s="2">
+        <v>46035.5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
       <c r="N39" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -2621,19 +2856,28 @@
         <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
+      <c r="K40" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L40" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O40" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P40">
         <v>4</v>
@@ -2641,19 +2885,19 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -2662,19 +2906,28 @@
         <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
       </c>
+      <c r="K41" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L41" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
       <c r="N41" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O41" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P41">
         <v>4</v>
@@ -2682,7 +2935,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>132</v>
@@ -2691,31 +2944,40 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
       </c>
+      <c r="K42" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L42" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
       <c r="N42" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P42">
         <v>4</v>
@@ -2723,40 +2985,49 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
       </c>
+      <c r="K43" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L43" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
       <c r="N43" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P43">
         <v>4</v>
@@ -2764,28 +3035,28 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
         <v>137</v>
       </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>138</v>
-      </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2793,11 +3064,20 @@
       <c r="J44" t="s">
         <v>23</v>
       </c>
+      <c r="K44" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L44" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
       <c r="N44" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P44">
         <v>4</v>
@@ -2805,28 +3085,28 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2834,11 +3114,20 @@
       <c r="J45" t="s">
         <v>23</v>
       </c>
+      <c r="K45" s="2">
+        <v>46035.583333333343</v>
+      </c>
+      <c r="L45" s="2">
+        <v>46035.75</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
       <c r="N45" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P45">
         <v>4</v>
@@ -2846,28 +3135,28 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>141</v>
-      </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2875,11 +3164,14 @@
       <c r="J46" t="s">
         <v>23</v>
       </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
       <c r="N46" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P46">
         <v>4</v>
@@ -2887,28 +3179,28 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -2916,11 +3208,14 @@
       <c r="J47" t="s">
         <v>23</v>
       </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
       <c r="N47" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P47">
         <v>4</v>
@@ -2928,19 +3223,19 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -2949,7 +3244,7 @@
         <v>143</v>
       </c>
       <c r="H48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -2957,11 +3252,14 @@
       <c r="J48" t="s">
         <v>23</v>
       </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
       <c r="N48" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P48">
         <v>4</v>
@@ -2969,19 +3267,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -2990,7 +3288,7 @@
         <v>143</v>
       </c>
       <c r="H49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -2998,11 +3296,14 @@
       <c r="J49" t="s">
         <v>23</v>
       </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
       <c r="N49" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P49">
         <v>4</v>
@@ -3010,40 +3311,43 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
       </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
       <c r="N50" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O50" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P50">
         <v>4</v>
@@ -3051,40 +3355,43 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
         <v>148</v>
       </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>143</v>
-      </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
       </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
       <c r="N51" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O51" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P51">
         <v>4</v>
@@ -3092,40 +3399,43 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
         <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>151</v>
-      </c>
-      <c r="H52" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" t="s">
-        <v>123</v>
-      </c>
-      <c r="O52" t="s">
-        <v>45</v>
       </c>
       <c r="P52">
         <v>4</v>
@@ -3133,40 +3443,44 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H53" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
         <v>23</v>
       </c>
+      <c r="K53" s="2"/>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
       <c r="N53" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P53">
         <v>4</v>
@@ -3174,81 +3488,87 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
       </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
       <c r="N54" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="O54" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>151</v>
-      </c>
       <c r="H55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
       <c r="N55" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O55" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P55">
         <v>4</v>
@@ -3256,7 +3576,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>156</v>
@@ -3265,19 +3585,19 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3285,11 +3605,14 @@
       <c r="J56" t="s">
         <v>23</v>
       </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
       <c r="N56" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="O56" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P56">
         <v>4</v>
@@ -3297,47 +3620,181 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>157</v>
       </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
+        <v>48</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>48</v>
+      </c>
+      <c r="P58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
         <v>67</v>
       </c>
-      <c r="I57" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" t="s">
-        <v>123</v>
-      </c>
-      <c r="O57" t="s">
-        <v>45</v>
-      </c>
-      <c r="P57">
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" t="s">
+        <v>26</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P57">
-    <sortCondition ref="G2:G57"/>
-    <sortCondition ref="I2:I57"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>